--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1977034.878399156</v>
+        <v>1937071.595459963</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914462</v>
+        <v>426806.9758914464</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,22 +709,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>93.38533837660206</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>190.3453970742849</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>127.5368749947454</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1031,7 +1031,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.3878995204394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>96.13285199009043</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1229,10 +1229,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.3702863852114</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>72.8413283450645</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>192.3508221809544</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3677099213027</v>
+        <v>161.5548316495437</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>147.5310530237951</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.25280406479364</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
@@ -1551,7 +1551,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.367319079164653</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>135.3175490308133</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>68.70995148086996</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T15" t="n">
-        <v>159.3388108552989</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>73.91737409206868</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.25280406479364</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.7922826979905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>222.797917758538</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>31.36206477090696</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.64958867533</v>
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>132.8395675973169</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.6039762133036</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>13.08993799274044</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>52.01684099042826</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>161.8212599355325</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.5310530237951</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>69.54644655460525</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>148.1471428537447</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>288.4262270244751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2414,7 +2414,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>219.8083356093245</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>145.4297492890001</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.4811043909672</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>331.3810864198821</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>75.46400677165994</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2690,13 +2690,13 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
-        <v>194.7716880834217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>215.88210488916</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.47529300550336</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>7.474574650667191</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>139.9237330628772</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>75.46400677166039</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>53.8530834247133</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.64958867533</v>
@@ -2891,7 +2891,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>142.3224937174977</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>146.3125801111236</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>47.69615615758233</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>146.5725397746774</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>77.24342326703555</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.1091373518905</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.9432719935528</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>90.69516639908538</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>7.064314025683601</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>52.18293713757069</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>65.14114192289423</v>
+        <v>150.7617616219096</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>309.7322243534001</v>
       </c>
       <c r="I38" t="n">
-        <v>9.215028740072739e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>187.2771953980852</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>116.3210247570767</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>98.62068960932605</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -3638,10 +3638,10 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>35.7266236402632</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>47.23959131629395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>58.28600630790621</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>16.29864623799213</v>
       </c>
       <c r="F42" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>123.4415842871431</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>146.5623749521075</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.7394868118182</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>127.6570108926888</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
-        <v>194.7716880834213</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>132.3661152307035</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>269.8755469337123</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>761.6974622895962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>566.3724067994576</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>566.3724067994576</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>566.3724067994576</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>566.3724067994576</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>566.3724067994576</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>874.2758585542716</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>278.55024192591</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>584.5057085574531</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.9255531013317</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>613.4725238202047</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9255531013317</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>787.9255531013317</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -5001,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2113.630833301597</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.630833301597</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D11" t="n">
-        <v>1755.365134694847</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E11" t="n">
-        <v>1369.576882096602</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M11" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S11" t="n">
-        <v>2367.410527289715</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T11" t="n">
-        <v>2367.410527289715</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.630833301597</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="V11" t="n">
-        <v>2113.630833301597</v>
+        <v>1996.324620183549</v>
       </c>
       <c r="W11" t="n">
-        <v>2113.630833301597</v>
+        <v>1996.324620183549</v>
       </c>
       <c r="X11" t="n">
-        <v>2113.630833301597</v>
+        <v>1622.858861922469</v>
       </c>
       <c r="Y11" t="n">
-        <v>2113.630833301597</v>
+        <v>1622.858861922469</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
         <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X12" t="n">
-        <v>1156.990441853887</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.638169680758</v>
+        <v>346.8095662305</v>
       </c>
       <c r="C13" t="n">
-        <v>640.638169680758</v>
+        <v>346.8095662305</v>
       </c>
       <c r="D13" t="n">
-        <v>640.638169680758</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E13" t="n">
-        <v>568.6656403223806</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>640.638169680758</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X13" t="n">
-        <v>640.638169680758</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.638169680758</v>
+        <v>346.8095662305</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.218971358049</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C14" t="n">
-        <v>2088.218971358049</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D14" t="n">
-        <v>1729.953272751299</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E14" t="n">
-        <v>1344.165020153054</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F14" t="n">
-        <v>933.179115363447</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>514.9914494340208</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>185.5041454929807</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5311,19 +5311,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.583635233345</v>
       </c>
       <c r="V14" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.218971358049</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.218971358049</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.218971358049</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5360,16 +5360,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
         <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
         <v>1970.07121469245</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T15" t="n">
-        <v>2061.991705784318</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U16" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V16" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W16" t="n">
-        <v>640.638169680758</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="X16" t="n">
-        <v>640.638169680758</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.638169680758</v>
+        <v>123.4837667669761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>776.0479680797255</v>
+        <v>1461.307423634649</v>
       </c>
       <c r="C17" t="n">
-        <v>407.0854511393138</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D17" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E17" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U17" t="n">
-        <v>1717.224081305859</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.224081305859</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.455426035745</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="X17" t="n">
-        <v>990.9896677746653</v>
+        <v>1847.90726369877</v>
       </c>
       <c r="Y17" t="n">
-        <v>990.9896677746653</v>
+        <v>1847.90726369877</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>842.2405468607036</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>667.7875175795766</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>518.8531079183253</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>359.6156529128699</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1426.067682851258</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1218.216182645725</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>1010.455883880772</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>515.785668455199</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>346.8494855272921</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
         <v>48.81975253256327</v>
@@ -5703,22 +5703,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1043.406692793243</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="C20" t="n">
-        <v>674.4441758528312</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D20" t="n">
-        <v>674.4441758528312</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E20" t="n">
-        <v>621.901912226136</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>210.9160074365284</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5791,13 +5791,13 @@
         <v>1786.314680039169</v>
       </c>
       <c r="W20" t="n">
-        <v>1433.546024769055</v>
+        <v>1622.858861922469</v>
       </c>
       <c r="X20" t="n">
-        <v>1433.546024769055</v>
+        <v>1622.858861922469</v>
       </c>
       <c r="Y20" t="n">
-        <v>1043.406692793243</v>
+        <v>1622.858861922469</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,13 +5834,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X21" t="n">
-        <v>1306.011707534488</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.2314487457803</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5937,25 +5937,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W22" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="X22" t="n">
-        <v>123.2314487457803</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="Y22" t="n">
-        <v>123.2314487457803</v>
+        <v>354.3508524775689</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>958.5909773069948</v>
+        <v>1311.479799318116</v>
       </c>
       <c r="C23" t="n">
-        <v>958.5909773069948</v>
+        <v>942.5172823777041</v>
       </c>
       <c r="D23" t="n">
-        <v>958.5909773069948</v>
+        <v>584.2515837709536</v>
       </c>
       <c r="E23" t="n">
-        <v>958.5909773069948</v>
+        <v>198.4633311727094</v>
       </c>
       <c r="F23" t="n">
-        <v>958.5909773069948</v>
+        <v>198.4633311727094</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6007,7 +6007,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
@@ -6019,22 +6019,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>1636.530440628162</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>1345.190817371117</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X23" t="n">
-        <v>1345.190817371117</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="Y23" t="n">
-        <v>1345.190817371117</v>
+        <v>1698.079639382237</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>922.6086434646021</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>748.1556141834751</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6077,43 +6077,43 @@
         <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W24" t="n">
-        <v>1338.220442435089</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1130.368942229556</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>922.6086434646021</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D25" t="n">
-        <v>2316.259238354459</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E25" t="n">
-        <v>2316.259238354459</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F25" t="n">
-        <v>2316.259238354459</v>
+        <v>195.718489188119</v>
       </c>
       <c r="G25" t="n">
-        <v>2147.159023177906</v>
+        <v>195.718489188119</v>
       </c>
       <c r="H25" t="n">
-        <v>1988.51787073081</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y25" t="n">
-        <v>2316.259238354459</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1322.097742093798</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C26" t="n">
-        <v>1322.097742093798</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D26" t="n">
-        <v>963.8320434870477</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E26" t="n">
-        <v>629.1036733659547</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F26" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,7 +6244,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
@@ -6253,25 +6253,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>2005.929284707483</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="V26" t="n">
-        <v>1674.866397363912</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="W26" t="n">
-        <v>1322.097742093798</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="X26" t="n">
-        <v>1322.097742093798</v>
+        <v>1991.29559890076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1322.097742093798</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>81.9375139983886</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>318.2287647883257</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>697.355907913719</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1191.758623309282</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.953720827628</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>2127.159342346857</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U27" t="n">
-        <v>2023.578676424718</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.602240824373</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.750740618841</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256328</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256328</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256328</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256328</v>
+        <v>335.058361281315</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807582</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807582</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581505</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="V28" t="n">
-        <v>96.77459395226364</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="W28" t="n">
-        <v>96.77459395226364</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="X28" t="n">
-        <v>96.77459395226364</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.77459395226364</v>
+        <v>633.0880942760439</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2050.848294652352</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C29" t="n">
-        <v>1681.885777711941</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D29" t="n">
-        <v>1323.62007910519</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E29" t="n">
-        <v>937.8318265069458</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F29" t="n">
-        <v>937.8318265069458</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G29" t="n">
-        <v>519.6441605775196</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>190.1568566364796</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
         <v>145.966048569732</v>
@@ -6496,19 +6496,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="X29" t="n">
-        <v>2440.987626628164</v>
+        <v>1991.29559890076</v>
       </c>
       <c r="Y29" t="n">
-        <v>2050.848294652352</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439335</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C30" t="n">
-        <v>722.1845715439335</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D30" t="n">
-        <v>573.2501618826823</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E30" t="n">
-        <v>414.0127068772268</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684676</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494433</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.24906426269</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640016</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>196.6102374932942</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C31" t="n">
-        <v>196.6102374932942</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D31" t="n">
-        <v>196.6102374932942</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E31" t="n">
-        <v>196.6102374932942</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F31" t="n">
-        <v>196.6102374932942</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K31" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W31" t="n">
-        <v>424.5997883913116</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X31" t="n">
-        <v>196.6102374932942</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.6102374932942</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>926.1915639758126</v>
+        <v>1680.922028302962</v>
       </c>
       <c r="C32" t="n">
-        <v>926.1915639758126</v>
+        <v>1311.959511362551</v>
       </c>
       <c r="D32" t="n">
-        <v>926.1915639758126</v>
+        <v>1311.959511362551</v>
       </c>
       <c r="E32" t="n">
-        <v>540.4033113775685</v>
+        <v>926.1712587643065</v>
       </c>
       <c r="F32" t="n">
-        <v>540.4033113775685</v>
+        <v>515.185353974699</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>96.9976880452727</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>96.9976880452727</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6706,46 +6706,46 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2042.565309482818</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2042.565309482818</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>2042.565309482818</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>1689.796654212704</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X32" t="n">
-        <v>1316.330895951624</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y32" t="n">
-        <v>926.1915639758126</v>
+        <v>2067.521868367084</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>386.856150637024</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C34" t="n">
-        <v>217.9199677091171</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D34" t="n">
-        <v>217.9199677091171</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="E34" t="n">
-        <v>217.9199677091171</v>
+        <v>203.3079060614045</v>
       </c>
       <c r="F34" t="n">
-        <v>217.9199677091171</v>
+        <v>203.3079060614045</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>203.3079060614045</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256327</v>
@@ -6882,28 +6882,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W34" t="n">
-        <v>487.9764913965093</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X34" t="n">
-        <v>487.9764913965093</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y34" t="n">
-        <v>487.9764913965093</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1787.054446563166</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C35" t="n">
-        <v>1787.054446563166</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D35" t="n">
-        <v>1428.788747956416</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E35" t="n">
-        <v>1043.000495358171</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F35" t="n">
-        <v>632.0145905685638</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
         <v>412.3079679977591</v>
@@ -6970,19 +6970,19 @@
         <v>2371.897027894854</v>
       </c>
       <c r="U35" t="n">
-        <v>2118.117333906737</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="V35" t="n">
-        <v>1787.054446563166</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="W35" t="n">
-        <v>1787.054446563166</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="X35" t="n">
-        <v>1787.054446563166</v>
+        <v>1991.29559890076</v>
       </c>
       <c r="Y35" t="n">
-        <v>1787.054446563166</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="36">
@@ -7004,10 +7004,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>93.02511962298431</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="H36" t="n">
         <v>48.81975253256327</v>
@@ -7016,25 +7016,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412.6486187827409</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C37" t="n">
-        <v>412.6486187827409</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D37" t="n">
-        <v>262.5319793704051</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="E37" t="n">
-        <v>114.618885788012</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="F37" t="n">
-        <v>114.618885788012</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="G37" t="n">
-        <v>114.618885788012</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="H37" t="n">
         <v>48.81975253256327</v>
@@ -7134,13 +7134,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X37" t="n">
-        <v>412.6486187827409</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y37" t="n">
-        <v>412.6486187827409</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>417.782269472975</v>
+        <v>1190.854155931799</v>
       </c>
       <c r="C38" t="n">
-        <v>48.81975253256326</v>
+        <v>1190.854155931799</v>
       </c>
       <c r="D38" t="n">
-        <v>48.81975253256326</v>
+        <v>1190.854155931799</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256326</v>
+        <v>1190.854155931799</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256326</v>
+        <v>779.8682511421916</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256326</v>
+        <v>361.6805852127654</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256233</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569731</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977581</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540036</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307047</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O38" t="n">
-        <v>2037.925350935284</v>
+        <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
         <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2440.987626628163</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U38" t="n">
-        <v>2251.818742387673</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V38" t="n">
-        <v>1920.755855044102</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W38" t="n">
-        <v>1567.987199773988</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X38" t="n">
-        <v>1194.521441512908</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y38" t="n">
-        <v>804.3821095370968</v>
+        <v>1577.453995995921</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>957.3366797756753</v>
+        <v>950.3620754742187</v>
       </c>
       <c r="C39" t="n">
-        <v>782.8836504945483</v>
+        <v>775.9090461930917</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>626.9746365318405</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>467.737181526385</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>321.20262355327</v>
       </c>
       <c r="G39" t="n">
         <v>221.5857653620315</v>
@@ -7250,55 +7250,55 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256326</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339183</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593116</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654874</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.071214692449</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424717</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V39" t="n">
-        <v>1795.401172494432</v>
+        <v>1788.426568192975</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.16381576623</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.312315560697</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y39" t="n">
-        <v>1125.552016795743</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="C40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479968</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989486</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>2186.303138422276</v>
+        <v>604.5506710542297</v>
       </c>
       <c r="W40" t="n">
-        <v>1896.885968385316</v>
+        <v>604.5506710542297</v>
       </c>
       <c r="X40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="Y40" t="n">
-        <v>1849.169209479968</v>
+        <v>376.5611201562124</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1622.047274456592</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C41" t="n">
-        <v>1622.047274456592</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D41" t="n">
         <v>1263.781575849841</v>
@@ -7444,19 +7444,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V41" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W41" t="n">
-        <v>2382.112872781794</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X41" t="n">
-        <v>2008.647114520714</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y41" t="n">
-        <v>2008.647114520714</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>114.9862139017798</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7493,13 +7493,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>196.8625555144901</v>
+        <v>515.949700703846</v>
       </c>
       <c r="U43" t="n">
-        <v>196.8625555144901</v>
+        <v>515.949700703846</v>
       </c>
       <c r="V43" t="n">
-        <v>196.8625555144901</v>
+        <v>515.949700703846</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1667.368382290203</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C44" t="n">
-        <v>1298.405865349792</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D44" t="n">
-        <v>940.1401667430414</v>
+        <v>563.5544807799881</v>
       </c>
       <c r="E44" t="n">
-        <v>940.1401667430414</v>
+        <v>177.7662281817439</v>
       </c>
       <c r="F44" t="n">
-        <v>940.1401667430414</v>
+        <v>177.7662281817439</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>177.7662281817439</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>2040.834140551283</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W44" t="n">
-        <v>2040.834140551283</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X44" t="n">
-        <v>1667.368382290203</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y44" t="n">
-        <v>1667.368382290203</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7760,19 +7760,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>351.4590821581505</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="C46" t="n">
-        <v>182.5228992302436</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D46" t="n">
-        <v>182.5228992302436</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>182.5228992302436</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>351.4590821581505</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="V46" t="n">
-        <v>351.4590821581505</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="W46" t="n">
-        <v>351.4590821581505</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="X46" t="n">
-        <v>351.4590821581505</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="Y46" t="n">
-        <v>351.4590821581505</v>
+        <v>368.0366071214529</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>268.6397271670517</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.9802256040016</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>94.72888660085749</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2426449028998</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>362.5001705371775</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.6245331081737</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>135.4014362891805</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>35.81287827175896</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>58.24193217968238</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>75.18115858177553</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.2173342729301</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>25.1577433241122</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -23551,19 +23551,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>182.5319455673663</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T15" t="n">
-        <v>38.02889906600382</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.9146060898686</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>74.16824395813761</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23706,7 +23706,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>169.9415589654901</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>142.4749740124695</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>118.8554155636027</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.2280039686337</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23943,16 +23943,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>329.9135290818335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>187.4197087818806</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>58.15164275350926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>93.57924184754302</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24177,7 +24177,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>216.9765517819857</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>265.8586464163873</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>60.8147416929379</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>31.88664755159508</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.62499163362415</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24414,7 +24414,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>90.39689308558495</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
         <v>225.4598605480533</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>50.5492836523797</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>175.7778902765763</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>38.02889906600353</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.3566871764339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24621,7 +24621,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>52.22830032617343</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>29.97247133340606</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24657,10 +24657,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>20.55155929204832</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>175.7778902765758</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>91.21612896867057</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.626077405407</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>24.92432738113018</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>21.09663291366471</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24888,7 +24888,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
         <v>225.4598605480533</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>112.7791361973432</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>70.84591884695305</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>70.2016422976032</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.72284283004684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>4.111468929071492</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25122,7 +25122,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
         <v>213.8779974765521</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>323.3106228710466</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>244.1775830225526</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>53.35061880807848</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>91.91359899973006</v>
+        <v>6.292979300714705</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>16.46020654822951</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549246</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>63.96470165015103</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>31.12404080756205</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>38.02889906600394</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25526,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25608,13 +25608,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.4110196835648</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>178.4700640727432</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>224.5107877757007</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>290.9549624095068</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="F42" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25836,10 +25836,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.0182762609102</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>139.9606233844835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>18.26630245831382</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>198.5354200089407</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -25924,7 +25924,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,10 +26000,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>38.02889906600399</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>13.05493279222773</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26079,7 +26079,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.41174971366934</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>591739.2181915561</v>
+        <v>591739.2181915562</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591739.2181915561</v>
+        <v>591739.2181915562</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591739.2181915562</v>
+        <v>591739.2181915559</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591739.2181915561</v>
+        <v>591739.2181915559</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>591739.2181915559</v>
+        <v>591739.2181915558</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>591739.2181915561</v>
+        <v>591739.2181915559</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>591739.2181915561</v>
+        <v>591739.2181915562</v>
       </c>
     </row>
     <row r="16">
@@ -26322,19 +26322,19 @@
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="F2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="G2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="H2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="I2" t="n">
-        <v>366042.2311676201</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="J2" t="n">
         <v>366042.2311676203</v>
@@ -26343,16 +26343,16 @@
         <v>366042.2311676205</v>
       </c>
       <c r="L2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="M2" t="n">
-        <v>366042.2311676204</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="N2" t="n">
         <v>366042.2311676203</v>
       </c>
       <c r="O2" t="n">
-        <v>366042.2311676204</v>
+        <v>366042.2311676203</v>
       </c>
       <c r="P2" t="n">
         <v>366042.2311676203</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
-        <v>3.141943134430972e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.2452810931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>9246.781534682701</v>
       </c>
       <c r="G4" t="n">
-        <v>9246.781534682699</v>
+        <v>9246.781534682701</v>
       </c>
       <c r="H4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="I4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="J4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="K4" t="n">
+        <v>9246.781534682699</v>
+      </c>
+      <c r="L4" t="n">
         <v>9246.781534682701</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>9246.781534682699</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>9246.781534682701</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9246.781534682699</v>
       </c>
       <c r="O4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="P4" t="n">
-        <v>9246.781534682697</v>
+        <v>9246.781534682701</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26493,10 +26493,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
         <v>44136.03802033842</v>
@@ -26505,7 +26505,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26530,40 +26530,40 @@
         <v>218429.2871908279</v>
       </c>
       <c r="E6" t="n">
-        <v>-56775.8875201809</v>
+        <v>-63744.8120939131</v>
       </c>
       <c r="F6" t="n">
-        <v>312659.4116125991</v>
+        <v>305690.4870388671</v>
       </c>
       <c r="G6" t="n">
-        <v>312659.4116125993</v>
+        <v>305690.487038867</v>
       </c>
       <c r="H6" t="n">
-        <v>312659.4116125994</v>
+        <v>305690.487038867</v>
       </c>
       <c r="I6" t="n">
-        <v>312659.411612599</v>
+        <v>305690.487038867</v>
       </c>
       <c r="J6" t="n">
-        <v>249599.4690134929</v>
+        <v>242630.5444397607</v>
       </c>
       <c r="K6" t="n">
-        <v>312659.4116125994</v>
+        <v>305690.4870388671</v>
       </c>
       <c r="L6" t="n">
-        <v>312659.4116125992</v>
+        <v>305690.4870388671</v>
       </c>
       <c r="M6" t="n">
-        <v>220645.1663315062</v>
+        <v>213676.2417577739</v>
       </c>
       <c r="N6" t="n">
-        <v>312659.4116125992</v>
+        <v>305690.487038867</v>
       </c>
       <c r="O6" t="n">
-        <v>312659.4116125993</v>
+        <v>305690.487038867</v>
       </c>
       <c r="P6" t="n">
-        <v>312659.4116125993</v>
+        <v>305690.4870388669</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26813,10 +26813,10 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="K4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
         <v>610.2469066570409</v>
@@ -26825,7 +26825,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
-        <v>1.096564756577404e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
-        <v>1.096564756577404e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,16 +27514,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>132.5560437043728</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>171.1123110561969</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.67467251196047</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,10 +27675,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>298.9492535497108</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>45.17162399357031</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.29479625686497</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>327.8432202093908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>31.40269881826603</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658877</v>
+        <v>291.1467225562099</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009466</v>
@@ -35974,7 +35974,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>497.1177477436264</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36445,7 +36445,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.45228430891446</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36928,10 +36928,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37402,10 +37402,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912678</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
@@ -37636,13 +37636,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>385.0071659263357</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38034,7 +38034,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P44" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329588</v>
       </c>
       <c r="Q44" t="n">
         <v>130.0651205780292</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1937071.595459963</v>
+        <v>1972390.35078573</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914464</v>
+        <v>426806.9758914463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478712</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>93.38533837660206</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>50.29171516770226</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.5368749947454</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>96.13285199009043</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>50.29171516770224</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>33.19332575419081</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>192.3508221809544</v>
+        <v>106.944830337067</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>161.5548316495437</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>72.26614395983657</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.367319079164653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>117.0106294738739</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>68.70995148086996</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>67.50465687964521</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.91737409206868</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74.15307578127786</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>222.797917758538</v>
+        <v>100.3228864971886</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>31.36206477090696</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1940,7 +1940,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>161.5548316495433</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.808210492146421</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>13.08993799274044</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>161.8212599355325</v>
+        <v>345.3283358437436</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>100.8367104035704</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957288909827</v>
+        <v>190.0828506192233</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>51.45328550777794</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>69.54644655460525</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>148.1471428537447</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>161.4448605901427</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2456,7 +2456,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>196.9877088776657</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>41.04963679611166</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.4297492890001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.33426324323987</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>75.46400677165994</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3677099213027</v>
+        <v>149.3102327444251</v>
       </c>
       <c r="U27" t="n">
         <v>225.8957288909827</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>215.88210488916</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.4297492890001</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.474574650667191</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>62.74421521536814</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>75.46400677166039</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>17.44731957864654</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.3224937174977</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.47529300550341</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>64.69939104998284</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>47.69615615758233</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>77.24342326703555</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3164,7 +3164,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>133.0094536351701</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.128412305538323</v>
       </c>
       <c r="H34" t="n">
-        <v>152.9432719935528</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>7.064314025683601</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>52.18293713757069</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7617616219096</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.9173740920687</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>309.7322243534001</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>46.14477489506159</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>86.91756963987463</v>
       </c>
       <c r="G39" t="n">
-        <v>98.62068960932605</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -3638,7 +3638,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>82.93199936042144</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>35.7266236402632</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>140.5117767530982</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>26.73110927253554</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,10 +3824,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>16.29864623799213</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>54.55879030882556</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.35202155932407</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>123.4415842871431</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>127.6570108926888</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>122.4627831704037</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>161.422060001789</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>269.8755469337123</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
         <v>259.4103516356203</v>
@@ -4372,10 +4372,10 @@
         <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>266.3558523848238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.3558523848238</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.1570697793896</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N3" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N3" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U3" t="n">
-        <v>566.3724067994576</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V3" t="n">
-        <v>566.3724067994576</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W3" t="n">
-        <v>566.3724067994576</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X3" t="n">
-        <v>566.3724067994576</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y3" t="n">
-        <v>566.3724067994576</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>104.5536560184564</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.701031422288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>531.8759051649694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,10 +4655,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>660.701031422288</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>660.701031422288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.701031422288</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4710,22 +4710,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>584.5057085574531</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4843,13 +4843,13 @@
         <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>930.5285436377162</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>702.3049253741053</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>467.1528171423627</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4995,19 +4995,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.259021858348</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.259021858348</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D11" t="n">
-        <v>877.9933232515971</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F11" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
         <v>1672.394424063531</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.618379962291</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2190.618379962291</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.618379962291</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>1996.324620183549</v>
+        <v>1609.199000157307</v>
       </c>
       <c r="W11" t="n">
-        <v>1996.324620183549</v>
+        <v>1609.199000157307</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.858861922469</v>
+        <v>1235.733241896227</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.858861922469</v>
+        <v>845.5939099204151</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>48.81975253256328</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="C13" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="D13" t="n">
-        <v>346.8095662305</v>
+        <v>269.7289511248923</v>
       </c>
       <c r="E13" t="n">
-        <v>346.8095662305</v>
+        <v>121.8158575424992</v>
       </c>
       <c r="F13" t="n">
-        <v>346.8095662305</v>
+        <v>121.8158575424992</v>
       </c>
       <c r="G13" t="n">
-        <v>346.8095662305</v>
+        <v>121.8158575424992</v>
       </c>
       <c r="H13" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5238,13 +5238,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>351.2209996437976</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X13" t="n">
-        <v>351.2209996437976</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372281</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1263.781575849841</v>
+        <v>1280.028775702085</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.781575849841</v>
+        <v>911.066258761673</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.781575849841</v>
+        <v>552.8005601549226</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9933232515971</v>
+        <v>167.0123075566783</v>
       </c>
       <c r="F14" t="n">
-        <v>467.0074184619895</v>
+        <v>167.0123075566783</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256327</v>
+        <v>167.0123075566783</v>
       </c>
       <c r="H14" t="n">
         <v>48.81975253256327</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U14" t="n">
-        <v>2371.583635233345</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.520747889775</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W14" t="n">
-        <v>2040.520747889775</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.520747889775</v>
+        <v>1666.628615766206</v>
       </c>
       <c r="Y14" t="n">
-        <v>1650.381415913963</v>
+        <v>1666.628615766206</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>922.6086434646021</v>
+        <v>950.3620754742187</v>
       </c>
       <c r="C15" t="n">
-        <v>748.1556141834751</v>
+        <v>775.9090461930917</v>
       </c>
       <c r="D15" t="n">
-        <v>599.2212045222238</v>
+        <v>626.9746365318405</v>
       </c>
       <c r="E15" t="n">
-        <v>439.9837495167684</v>
+        <v>467.737181526385</v>
       </c>
       <c r="F15" t="n">
-        <v>293.4491915436533</v>
+        <v>321.20262355327</v>
       </c>
       <c r="G15" t="n">
-        <v>155.4193039928149</v>
+        <v>183.1727360024316</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
         <v>1970.07121469245</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1995.825244415101</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V15" t="n">
-        <v>1760.673136183358</v>
+        <v>1788.426568192975</v>
       </c>
       <c r="W15" t="n">
-        <v>1506.435779455157</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X15" t="n">
-        <v>1298.584279249624</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y15" t="n">
-        <v>1090.82398048467</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="16">
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>565.7360729319925</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>565.7360729319925</v>
       </c>
       <c r="T16" t="n">
-        <v>412.9009368039367</v>
+        <v>337.9988400551709</v>
       </c>
       <c r="U16" t="n">
-        <v>412.9009368039367</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V16" t="n">
-        <v>412.9009368039367</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W16" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1461.307423634649</v>
+        <v>890.62921025027</v>
       </c>
       <c r="C17" t="n">
-        <v>1236.259021858348</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="D17" t="n">
-        <v>877.9933232515971</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="E17" t="n">
-        <v>877.9933232515971</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U17" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V17" t="n">
-        <v>2221.37302195985</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W17" t="n">
-        <v>2221.37302195985</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="X17" t="n">
-        <v>1847.90726369877</v>
+        <v>1667.368382290203</v>
       </c>
       <c r="Y17" t="n">
-        <v>1847.90726369877</v>
+        <v>1277.229050314392</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>779.8344674874215</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C18" t="n">
-        <v>748.1556141834751</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D18" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E18" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F18" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5594,19 +5594,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
         <v>1970.07121469245</v>
@@ -5624,22 +5624,22 @@
         <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477976</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X18" t="n">
-        <v>1155.810103272443</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y18" t="n">
-        <v>948.0498045074896</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>50.64622777715562</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>50.64622777715562</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>50.64622777715562</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5697,28 +5697,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T19" t="n">
-        <v>627.4160100921315</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U19" t="n">
-        <v>338.2369225695239</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V19" t="n">
-        <v>338.2369225695239</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.5593213595487</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1236.259021858348</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C20" t="n">
-        <v>1236.259021858348</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D20" t="n">
-        <v>877.9933232515971</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F20" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2040.094374027286</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U20" t="n">
-        <v>1786.314680039169</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V20" t="n">
-        <v>1786.314680039169</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.858861922469</v>
+        <v>1588.022185121907</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.858861922469</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="Y20" t="n">
-        <v>1622.858861922469</v>
+        <v>1214.556426860827</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>779.8344674874215</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C21" t="n">
-        <v>605.3814382062945</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D21" t="n">
-        <v>456.4470285450433</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E21" t="n">
-        <v>297.2095735395878</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F21" t="n">
-        <v>150.6750155664728</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G21" t="n">
         <v>48.81975253256327</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5864,19 +5864,19 @@
         <v>2081.228572368206</v>
       </c>
       <c r="U21" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V21" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W21" t="n">
-        <v>1363.661603477976</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X21" t="n">
-        <v>1155.810103272443</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y21" t="n">
-        <v>948.0498045074896</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.3508524775689</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="C22" t="n">
-        <v>354.3508524775689</v>
+        <v>250.9094076093212</v>
       </c>
       <c r="D22" t="n">
-        <v>354.3508524775689</v>
+        <v>100.7927681969854</v>
       </c>
       <c r="E22" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5937,25 +5937,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W22" t="n">
-        <v>354.3508524775689</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X22" t="n">
-        <v>354.3508524775689</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y22" t="n">
-        <v>354.3508524775689</v>
+        <v>419.8455905372281</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.479799318116</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C23" t="n">
-        <v>942.5172823777041</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D23" t="n">
-        <v>584.2515837709536</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E23" t="n">
-        <v>198.4633311727094</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F23" t="n">
-        <v>198.4633311727094</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5989,10 +5989,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6007,7 +6007,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
@@ -6025,16 +6025,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2440.987626628164</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.218971358049</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.218971358049</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.079639382237</v>
+        <v>1594.080467256759</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6095,13 +6095,13 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2316.764520037966</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T24" t="n">
-        <v>2117.403196885135</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U24" t="n">
-        <v>1889.225692954849</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V24" t="n">
         <v>1654.073584723107</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.6381696807582</v>
+        <v>238.1971257069884</v>
       </c>
       <c r="C25" t="n">
-        <v>640.6381696807582</v>
+        <v>238.1971257069884</v>
       </c>
       <c r="D25" t="n">
-        <v>490.5215302684225</v>
+        <v>238.1971257069884</v>
       </c>
       <c r="E25" t="n">
-        <v>342.6084366860293</v>
+        <v>90.28403212459526</v>
       </c>
       <c r="F25" t="n">
-        <v>195.718489188119</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>195.718489188119</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
         <v>48.81975253256327</v>
@@ -6192,7 +6192,7 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.6381696807582</v>
+        <v>419.8455905372281</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1214.556426860827</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C26" t="n">
-        <v>845.5939099204151</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D26" t="n">
-        <v>845.5939099204151</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E26" t="n">
-        <v>459.8056573221708</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="U26" t="n">
-        <v>2364.76135716184</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.76135716184</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="W26" t="n">
-        <v>2364.76135716184</v>
+        <v>2371.963118301659</v>
       </c>
       <c r="X26" t="n">
-        <v>1991.29559890076</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="Y26" t="n">
-        <v>1601.156266924949</v>
+        <v>1608.358028064767</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.0090920043505</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K27" t="n">
         <v>285.1110033225004</v>
@@ -6332,25 +6332,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2280.589895521037</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T27" t="n">
-        <v>2081.228572368206</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U27" t="n">
-        <v>1853.051068437921</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.898960206178</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W27" t="n">
-        <v>1399.836227994905</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X27" t="n">
-        <v>1191.984727789372</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.2244290244184</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D28" t="n">
-        <v>482.9714548637081</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E28" t="n">
-        <v>335.058361281315</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F28" t="n">
-        <v>188.1684137834047</v>
+        <v>195.718489188119</v>
       </c>
       <c r="G28" t="n">
-        <v>188.1684137834047</v>
+        <v>195.718489188119</v>
       </c>
       <c r="H28" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y28" t="n">
-        <v>633.0880942760439</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1214.556426860827</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="C29" t="n">
-        <v>845.5939099204151</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D29" t="n">
-        <v>845.5939099204151</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
         <v>145.966048569732</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="U29" t="n">
-        <v>2364.76135716184</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.76135716184</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="W29" t="n">
-        <v>2364.76135716184</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.29559890076</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1601.156266924949</v>
+        <v>2377.609631461125</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2423.364071498218</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V30" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W30" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G31" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6651,22 +6651,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V31" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="W31" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X31" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1680.922028302962</v>
+        <v>868.9234423237272</v>
       </c>
       <c r="C32" t="n">
-        <v>1311.959511362551</v>
+        <v>499.9609253833154</v>
       </c>
       <c r="D32" t="n">
-        <v>1311.959511362551</v>
+        <v>499.9609253833154</v>
       </c>
       <c r="E32" t="n">
-        <v>926.1712587643065</v>
+        <v>114.1726727850712</v>
       </c>
       <c r="F32" t="n">
-        <v>515.185353974699</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G32" t="n">
-        <v>96.9976880452727</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H32" t="n">
-        <v>96.9976880452727</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="W32" t="n">
-        <v>2440.987626628164</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="X32" t="n">
-        <v>2067.521868367084</v>
+        <v>1645.662614363661</v>
       </c>
       <c r="Y32" t="n">
-        <v>2067.521868367084</v>
+        <v>1255.523282387849</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>779.8344674874215</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C33" t="n">
-        <v>605.3814382062945</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D33" t="n">
-        <v>527.3577783406021</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E33" t="n">
-        <v>368.1203233351466</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>221.5857653620315</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V33" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W33" t="n">
-        <v>1363.661603477976</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X33" t="n">
-        <v>1155.810103272443</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y33" t="n">
-        <v>948.0498045074896</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="D34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="E34" t="n">
-        <v>203.3079060614045</v>
+        <v>48.94946193209694</v>
       </c>
       <c r="F34" t="n">
-        <v>203.3079060614045</v>
+        <v>48.94946193209694</v>
       </c>
       <c r="G34" t="n">
-        <v>203.3079060614045</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6885,25 +6885,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="35">
@@ -6943,13 +6943,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6970,10 +6970,10 @@
         <v>2371.897027894854</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.76135716184</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V35" t="n">
-        <v>2364.76135716184</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W35" t="n">
         <v>2364.76135716184</v>
@@ -7004,10 +7004,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>239.5596775960993</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>101.5297900452609</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H36" t="n">
         <v>48.81975253256327</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C37" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D37" t="n">
-        <v>201.1043602314619</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>201.1043602314619</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>201.1043602314619</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>201.1043602314619</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
         <v>48.81975253256327</v>
@@ -7125,22 +7125,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W37" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X37" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.854155931799</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="C38" t="n">
-        <v>1190.854155931799</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="D38" t="n">
-        <v>1190.854155931799</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.854155931799</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F38" t="n">
-        <v>779.8682511421916</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G38" t="n">
-        <v>361.6805852127654</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U38" t="n">
-        <v>1967.593327971733</v>
+        <v>2325.286144162469</v>
       </c>
       <c r="V38" t="n">
-        <v>1967.593327971733</v>
+        <v>2325.286144162469</v>
       </c>
       <c r="W38" t="n">
-        <v>1967.593327971733</v>
+        <v>2325.286144162469</v>
       </c>
       <c r="X38" t="n">
-        <v>1967.593327971733</v>
+        <v>1951.820385901389</v>
       </c>
       <c r="Y38" t="n">
-        <v>1577.453995995921</v>
+        <v>1561.681053925577</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>950.3620754742187</v>
+        <v>930.0360717494659</v>
       </c>
       <c r="C39" t="n">
-        <v>775.9090461930917</v>
+        <v>755.5830424683389</v>
       </c>
       <c r="D39" t="n">
-        <v>626.9746365318405</v>
+        <v>606.6486328070877</v>
       </c>
       <c r="E39" t="n">
-        <v>467.737181526385</v>
+        <v>447.4111778016322</v>
       </c>
       <c r="F39" t="n">
-        <v>321.20262355327</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
         <v>221.5857653620315</v>
@@ -7265,13 +7265,13 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7286,19 +7286,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1788.426568192975</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1534.189211464774</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1326.337711259241</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="Y39" t="n">
-        <v>1118.577412494287</v>
+        <v>1098.251408769534</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.5611201562124</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="C40" t="n">
-        <v>376.5611201562124</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="D40" t="n">
-        <v>376.5611201562124</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E40" t="n">
-        <v>376.5611201562124</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F40" t="n">
-        <v>376.5611201562124</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G40" t="n">
-        <v>207.4609049796586</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I40" t="n">
         <v>48.81975253256327</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="V40" t="n">
-        <v>604.5506710542297</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="W40" t="n">
-        <v>604.5506710542297</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="X40" t="n">
-        <v>376.5611201562124</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="Y40" t="n">
-        <v>376.5611201562124</v>
+        <v>271.9381101070627</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.781575849841</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.781575849841</v>
+        <v>1345.790696156558</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.781575849841</v>
+        <v>987.5249975498073</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>601.736744951563</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>190.7508401619554</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>190.7508401619554</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7444,19 +7444,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W41" t="n">
-        <v>2413.986506150855</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.520747889775</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y41" t="n">
-        <v>1650.381415913963</v>
+        <v>1714.753213096969</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>456.4470285450433</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>103.9296417333972</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256327</v>
@@ -7499,43 +7499,43 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="D43" t="n">
-        <v>365.8330612915103</v>
+        <v>274.4831489789758</v>
       </c>
       <c r="E43" t="n">
-        <v>217.9199677091171</v>
+        <v>274.4831489789758</v>
       </c>
       <c r="F43" t="n">
-        <v>217.9199677091171</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y43" t="n">
-        <v>515.949700703846</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1290.78269632715</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="C44" t="n">
-        <v>921.8201793867386</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="D44" t="n">
-        <v>563.5544807799881</v>
+        <v>1305.98275598148</v>
       </c>
       <c r="E44" t="n">
-        <v>177.7662281817439</v>
+        <v>920.1945033832353</v>
       </c>
       <c r="F44" t="n">
-        <v>177.7662281817439</v>
+        <v>920.1945033832353</v>
       </c>
       <c r="G44" t="n">
-        <v>177.7662281817439</v>
+        <v>502.0068374538091</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>172.519533512769</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7654,13 +7654,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
@@ -7690,10 +7690,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="X44" t="n">
-        <v>2067.521868367084</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Y44" t="n">
-        <v>1677.382536391272</v>
+        <v>2050.848294652352</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.0366071214529</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C46" t="n">
-        <v>368.0366071214529</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D46" t="n">
-        <v>217.9199677091171</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="E46" t="n">
-        <v>217.9199677091171</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="F46" t="n">
-        <v>217.9199677091171</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>368.0366071214529</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>368.0366071214529</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W46" t="n">
-        <v>368.0366071214529</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X46" t="n">
-        <v>368.0366071214529</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y46" t="n">
-        <v>368.0366071214529</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617152</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O15" t="n">
-        <v>268.6397271670517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
-        <v>362.5001705371775</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104481</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>135.4014362891805</v>
+        <v>220.8074281330679</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>35.81287827175896</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.78859696278772</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
         <v>52.22830032617343</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.2173342729301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>209.1818014277557</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.5319455673663</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>38.02889906600396</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.9146060898686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1350615014064</v>
+        <v>76.98198572012851</v>
       </c>
       <c r="S16" t="n">
         <v>213.8779974765521</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>142.4749740124695</v>
+        <v>264.9500052738189</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>35.81287827175942</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>155.2465304304779</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23937,16 +23937,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>212.3699225553129</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>187.4197087818806</v>
+        <v>3.912632873669452</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>35.81287827175962</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>35.81287827175942</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>94.98067713879124</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24177,7 +24177,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>216.9765517819857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>265.8586464163873</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24265,7 +24265,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>224.7930780659109</v>
       </c>
     </row>
     <row r="24">
@@ -24335,7 +24335,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>104.3714112268196</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>11.62499163362415</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0.06542950273642134</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24499,7 +24499,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>175.7778902765763</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>48.05747717687763</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>11.62499163362415</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
         <v>52.22830032617343</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.97247133340606</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>5.655477530608152</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24736,7 +24736,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>175.7778902765758</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.626077405407</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>24.92432738113018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24891,16 +24891,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>342.1766546917286</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>112.7791361973432</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>70.2016422976032</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>92.88627525581254</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>167.28080071925</v>
       </c>
       <c r="H34" t="n">
-        <v>4.111468929071492</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25125,10 +25125,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25210,13 +25210,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>244.1775830225526</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>342.1766546917294</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>53.35061880807848</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>6.292979300714705</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25365,10 +25365,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>16.46020654822951</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>205.0971221531747</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>58.15164275350925</v>
       </c>
       <c r="G39" t="n">
-        <v>38.02889906600394</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.68347365779091</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25596,10 +25596,10 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
@@ -25608,13 +25608,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>216.4110196835648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>185.6806541485313</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25684,19 +25684,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>224.5107877757007</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.97476563682361</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>79.06902646360717</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25836,10 +25836,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>102.0182762609102</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>198.5354200089407</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>38.01250918452179</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5.987153022999337</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>52.22830032617343</v>
@@ -26079,13 +26079,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>16.41174971366934</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>591739.2181915562</v>
+        <v>591739.2181915561</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591739.2181915562</v>
+        <v>591739.2181915559</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591739.2181915559</v>
+        <v>591739.2181915562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591739.2181915559</v>
+        <v>591739.2181915561</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>591739.2181915558</v>
+        <v>591739.2181915562</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>591739.2181915562</v>
+        <v>591739.2181915561</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>591739.2181915561</v>
+        <v>591739.2181915559</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
@@ -26325,25 +26325,25 @@
         <v>366042.2311676205</v>
       </c>
       <c r="F2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="G2" t="n">
-        <v>366042.2311676204</v>
+        <v>366042.2311676203</v>
       </c>
       <c r="H2" t="n">
         <v>366042.2311676204</v>
       </c>
       <c r="I2" t="n">
+        <v>366042.2311676203</v>
+      </c>
+      <c r="J2" t="n">
+        <v>366042.2311676205</v>
+      </c>
+      <c r="K2" t="n">
         <v>366042.2311676204</v>
       </c>
-      <c r="J2" t="n">
-        <v>366042.2311676203</v>
-      </c>
-      <c r="K2" t="n">
-        <v>366042.2311676205</v>
-      </c>
       <c r="L2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="M2" t="n">
         <v>366042.2311676205</v>
@@ -26352,10 +26352,10 @@
         <v>366042.2311676203</v>
       </c>
       <c r="O2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="P2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676204</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109308</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,7 +26444,7 @@
         <v>9246.781534682701</v>
       </c>
       <c r="K4" t="n">
-        <v>9246.781534682699</v>
+        <v>9246.781534682701</v>
       </c>
       <c r="L4" t="n">
         <v>9246.781534682701</v>
@@ -26459,7 +26459,7 @@
         <v>9246.781534682701</v>
       </c>
       <c r="P4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26493,13 +26493,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>137659.8556592802</v>
       </c>
       <c r="C6" t="n">
-        <v>218429.2871908279</v>
+        <v>218429.2871908277</v>
       </c>
       <c r="D6" t="n">
         <v>218429.2871908279</v>
       </c>
       <c r="E6" t="n">
-        <v>-63744.8120939131</v>
+        <v>-57472.77997755407</v>
       </c>
       <c r="F6" t="n">
-        <v>305690.4870388671</v>
+        <v>311962.5191552261</v>
       </c>
       <c r="G6" t="n">
-        <v>305690.487038867</v>
+        <v>311962.519155226</v>
       </c>
       <c r="H6" t="n">
-        <v>305690.487038867</v>
+        <v>311962.5191552261</v>
       </c>
       <c r="I6" t="n">
-        <v>305690.487038867</v>
+        <v>311962.519155226</v>
       </c>
       <c r="J6" t="n">
-        <v>242630.5444397607</v>
+        <v>248902.5765561199</v>
       </c>
       <c r="K6" t="n">
-        <v>305690.4870388671</v>
+        <v>311962.5191552261</v>
       </c>
       <c r="L6" t="n">
-        <v>305690.4870388671</v>
+        <v>311962.5191552261</v>
       </c>
       <c r="M6" t="n">
-        <v>213676.2417577739</v>
+        <v>219948.273874133</v>
       </c>
       <c r="N6" t="n">
-        <v>305690.487038867</v>
+        <v>311962.5191552259</v>
       </c>
       <c r="O6" t="n">
-        <v>305690.487038867</v>
+        <v>311962.5191552261</v>
       </c>
       <c r="P6" t="n">
-        <v>305690.4870388669</v>
+        <v>311962.5191552261</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26813,13 +26813,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>288.9009862035136</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>132.5560437043728</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,7 +27678,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>298.9492535497108</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.17162399357031</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>160.1841744027037</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,19 +27934,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>166.9714029406308</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891457</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O15" t="n">
-        <v>291.1467225562099</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009466</v>
@@ -35974,10 +35974,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508155</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36211,7 +36211,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36454,10 +36454,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36922,7 +36922,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37159,7 +37159,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
-        <v>385.0071659263357</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>468.0345334781882</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537828</v>
       </c>
       <c r="M44" t="n">
         <v>446.9000637909531</v>
@@ -38034,7 +38034,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P44" t="n">
-        <v>277.0684912329588</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
         <v>130.0651205780292</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
